--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="77">
   <si>
     <t>Tên danh mục hàng hóa</t>
   </si>
@@ -247,15 +247,17 @@
   </si>
   <si>
     <t>Pre-loaded fibre drawer with 24 duplex SM OS1/OS2 (9µm) LC adapters (Zirconia Sleeve)</t>
+  </si>
+  <si>
+    <t>2024 trở về sau</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -307,21 +309,25 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -628,10 +634,14 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L20"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -655,7 +665,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -672,610 +682,686 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4">
-        <v>19660000</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4">
+        <v>45934</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="6">
+        <v>52000</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4">
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45935</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="6">
         <v>13408000</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4">
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45936</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="6">
         <v>10496000</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4">
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45937</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="6">
         <v>10496000</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4">
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45938</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="6">
         <v>7329000</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4">
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4">
+        <v>45939</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="6">
         <v>7190000</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4">
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4">
+        <v>45940</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="6">
         <v>6766000</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4">
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4">
+        <v>45940</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="6">
         <v>6766000</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4">
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4">
+        <v>45940</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="6">
         <v>6506000</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4">
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4">
+        <v>45940</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="6">
         <v>6298000</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4">
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4">
+        <v>45940</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="6">
         <v>6000000</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4">
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4">
+        <v>45940</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="6">
         <v>5950000</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="3" t="s">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4">
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4">
+        <v>45940</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="6">
         <v>5386000</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4">
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4">
+        <v>45940</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="6">
         <v>4846000</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4">
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4">
+        <v>45940</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="6">
         <v>4726000</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4">
+      <c r="F17" s="4">
+        <v>45940</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="6">
         <v>4450000</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4">
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4">
+        <v>45940</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="6">
         <v>4306000</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4">
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4">
+        <v>45940</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="6">
         <v>4286000</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4">
+      <c r="F20" s="4">
+        <v>45940</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="6">
         <v>4195000</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="3" t="s">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
